--- a/NavTable Spreadsheet.xlsx
+++ b/NavTable Spreadsheet.xlsx
@@ -282,11 +282,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f>IF(B8&gt;-1,CONCATENATE(IF(B8&gt;=18000,INT((B8-18000)/1000),INT((B8+6000)/1000)),":",TEXT(MOD(B8,1000)/1000*60,"00")),"Nav")</f>
+        <f t="shared" ref="B5:D5" si="1">IF(B8&gt;-1,CONCATENATE(IF(B8&gt;=18000,INT((B8-18000)/1000),INT((B8+6000)/1000)),":",TEXT(MOD(B8,1000)/1000*60,"00")),"Nav")</f>
         <v>6:00</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -326,11 +332,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="8">
-        <f>IF(ISNUMBER(A6)=true,A6+1,0)</f>
+        <f t="shared" ref="B6:D6" si="2">IF(ISNUMBER(A6)=true,A6+1,0)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -491,7 +503,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" ref="B17:B22" si="1">TEXTJOIN(",",true,B8:ZZ8)</f>
+        <f t="shared" ref="B17:B22" si="3">TEXTJOIN(",",true,B8:ZZ8)</f>
         <v/>
       </c>
       <c r="J17" s="14"/>
@@ -501,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -510,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -519,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -528,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -537,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/NavTable Spreadsheet.xlsx
+++ b/NavTable Spreadsheet.xlsx
@@ -3,9 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="NavDude" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="Schedule 1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Demo Data" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="Sheet3" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,6 +14,133 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B3">
+      <text>
+        <t xml:space="preserve">You can have as many columns as you like! Just make sure not to leave any cells blank in columns you use!</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A5">
+      <text>
+        <t xml:space="preserve">Time for readability. Not a variable. Expand these formulae as required.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A6">
+      <text>
+        <t xml:space="preserve">This corresponds to the index of the array. Included for readability. Must start at 0 and increase by 1 each step. Auto-assigned by script. Not a variable. Expand these formulae as required.
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A7">
+      <text>
+        <t xml:space="preserve">Label for readability, this is not a variable.
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A8">
+      <text>
+        <t xml:space="preserve">The world time (in ticks) when the NPC needs to start navigating to the next major point (the next timed point) For points between schedules this is -1. Recommended to add between points if distance longer than 20 blocks between major points.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A9">
+      <text>
+        <t xml:space="preserve">The X position the NPC is navigating to. The destination is the next point with a time assigned.
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A10">
+      <text>
+        <t xml:space="preserve">Y Location the NPC is navigating to.
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A11">
+      <text>
+        <t xml:space="preserve">Z Location the NPC is navigating to.
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A12">
+      <text>
+        <t xml:space="preserve">North = 180, East = 270, South =360, West = 90
+Rotation of NPC once at point. Useful for orienting NPC to objects to represent interaction. Note that NPC's will walk normally whilst navigating, so orientation not important with nav points.
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A13">
+      <text>
+        <t xml:space="preserve">0 = normal, 1 = sit, 2 = sleep, 3 = hug/zombie pose, 4 = sneak, 5 = dance, 6 = aim bow, 7= prone/crawl, 8 = point (right), 9 = look down, 10 = wave, 11 = bow, 12 = shake head, 13 = nod.
+Animation for NPC to use once at destination.
+</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A14">
+      <text>
+        <t xml:space="preserve">Only useful for nav points. Time in ticks that NPC will stop once at the point. Useful if you want the NPC to do something quickly that isn't time sensitive. Also activates animation and rotation for nav points.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A15">
+      <text>
+        <t xml:space="preserve">0 = N/A, 1 = right every interval, 2 = left every interval, 3 = alternate hands, 4 = right random, 5 = left  random, 6 = either hand random</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A16">
+      <text>
+        <t xml:space="preserve">Format: ["item",damage]
+E.g. ["minecraft:dye",3]
+All symbols required! Set damage to 0 if not required.
+Item to be held in left hand, once NPC starts navigating. They will carry it from that point until told to hold something else. Assign as 0  to make NPC stop holding an item.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A17">
+      <text>
+        <t xml:space="preserve">Format: ["item",damage]
+E.g. ["minecraft:dye",3]
+All symbols required!
+Item to be held in right hand, once NPC starts navigating. They will carry it from that point until told to hold something else. Assign as 0 to make NPC stop holding an item.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A18">
+      <text>
+        <t xml:space="preserve">Helmet for NPC to wear. Format: ["item",damage]
+Assign as 0 to remove.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A19">
+      <text>
+        <t xml:space="preserve">Chestplate for NPC to wear. Format: ["item",damage]
+Assign as 0 to remove.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A20">
+      <text>
+        <t xml:space="preserve">Pants for NPC to wear. Format: ["item",damage]
+Assign as 0 to remove.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A21">
+      <text>
+        <t xml:space="preserve">Boots for NPC to wear. Format: ["item",damage]
+Assign as 0 to remove.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A22">
+      <text>
+        <t xml:space="preserve">Format: "subfolder/texture"
+Eg. "humanmale/camosteve"
+Assign as 0 to keep skin.
+Custom skins must be placed in the customnpcs folder (prior to booting minecraft).</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -77,12 +205,65 @@
         <t xml:space="preserve">Only useful for nav points. Time in ticks that NPC will stop once at the point. Useful if you want the NPC to do something quickly that isn't time sensitive. Also activates animation and rotation for nav points.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A15">
+      <text>
+        <t xml:space="preserve">0 = N/A, 1 = right every interval, 2 = left every interval, 3 = alternate hands, 4 = right random, 5 = left  random, 6 = either hand random</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A16">
+      <text>
+        <t xml:space="preserve">Format: ["item",damage]
+E.g. ["minecraft:dye",3]
+All symbols required! Set damage to 0 if not required.
+Item to be held in left hand, once NPC starts navigating. They will carry it from that point until told to hold something else. Assign as 0  to make NPC stop holding an item.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A17">
+      <text>
+        <t xml:space="preserve">Format: ["item",damage]
+E.g. ["minecraft:dye",3]
+All symbols required!
+Item to be held in right hand, once NPC starts navigating. They will carry it from that point until told to hold something else. Assign as 0 to make NPC stop holding an item.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A18">
+      <text>
+        <t xml:space="preserve">Helmet for NPC to wear. Format: ["item",damage]
+Assign as 0 to remove.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A19">
+      <text>
+        <t xml:space="preserve">Chestplate for NPC to wear. Format: ["item",damage]
+Assign as 0 to remove.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A20">
+      <text>
+        <t xml:space="preserve">Pants for NPC to wear. Format: ["item",damage]
+Assign as 0 to remove.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A21">
+      <text>
+        <t xml:space="preserve">Boots for NPC to wear. Format: ["item",damage]
+Assign as 0 to remove.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A22">
+      <text>
+        <t xml:space="preserve">Format: "subfolder/texture"
+Eg. "humanmale/camosteve"
+Assign as 0 to keep skin.
+Custom skins must be placed in the customnpcs folder (prior to booting minecraft).</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="69">
   <si>
     <t>Input section:</t>
   </si>
@@ -120,17 +301,182 @@
     <t>Delay</t>
   </si>
   <si>
+    <t>Move Arms</t>
+  </si>
+  <si>
+    <t>Item Left</t>
+  </si>
+  <si>
+    <t>Item Right</t>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Skin</t>
+  </si>
+  <si>
     <t>Output section:</t>
   </si>
   <si>
     <t>Copy these values into the variables in the script. This will fill in as you fill in the input section.</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>anim</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>movingArms</t>
+  </si>
+  <si>
+    <t>leftItem</t>
+  </si>
+  <si>
+    <t>rightItem</t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>boots</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Loo</t>
+  </si>
+  <si>
+    <t>Shower</t>
+  </si>
+  <si>
+    <t>Fridge</t>
+  </si>
+  <si>
+    <t>Stove</t>
+  </si>
+  <si>
+    <t>Sink</t>
+  </si>
+  <si>
+    <t>B/fast</t>
+  </si>
+  <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>W/Fridge</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>W Fridge</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>W Loo</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Couch</t>
+  </si>
+  <si>
+    <t>["minecraft:paper",0]</t>
+  </si>
+  <si>
+    <t>["minecraft:sponge",1]</t>
+  </si>
+  <si>
+    <t>["harvestcraft:batteritem",0]</t>
+  </si>
+  <si>
+    <t>["harvestcraft:skilletitem",0]</t>
+  </si>
+  <si>
+    <t>["harvestcraft:pancakesitem",0]</t>
+  </si>
+  <si>
+    <t>["backpacks16840:backpack",8]</t>
+  </si>
+  <si>
+    <t>["harvestcraft:strawberryjellysandwichitem",0]</t>
+  </si>
+  <si>
+    <t>["immersiveengineering:pickaxe_steel",0]</t>
+  </si>
+  <si>
+    <t>["minecraft:egg",0]</t>
+  </si>
+  <si>
+    <t>["harvestcraft:scrambledeggitem",0]</t>
+  </si>
+  <si>
+    <t>["cfm:tv_remote",0]</t>
+  </si>
+  <si>
+    <t>["cfm:item_soap",0]</t>
+  </si>
+  <si>
+    <t>["harvestcraft:soymilkitem",0]</t>
+  </si>
+  <si>
+    <t>["harvestcraft:saucepanitem",0]</t>
+  </si>
+  <si>
+    <t>["minecraft:leather_helmet",0]</t>
+  </si>
+  <si>
+    <t>["minecraft:leather_chestplate",0]</t>
+  </si>
+  <si>
+    <t>["minecraft:leather_leggings",0]</t>
+  </si>
+  <si>
+    <t>["minecraft:leather_boots",0]</t>
+  </si>
+  <si>
+    <t>"humanmale/black_shirt_guy"</t>
+  </si>
+  <si>
+    <t>"humanmale/minersteve"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -162,6 +508,9 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FFF7981D"/>
     </font>
@@ -190,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -234,8 +583,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -259,6 +614,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -273,7 +632,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="11.29"/>
-    <col customWidth="1" min="2" max="34" width="6.29"/>
+    <col customWidth="1" min="2" max="36" width="14.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
@@ -295,82 +654,284 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="str">
-        <f>IF(B8&gt;-1,CONCATENATE(IF(B8&gt;=18000,INT((B8-18000)/1000),INT((B8+6000)/1000)),":",TEXT(MOD(B8,1000)/1000*60,"00")),"Nav")</f>
+        <f t="shared" ref="B5:AI5" si="1">IF(B8&gt;-1,CONCATENATE(IF(B8&gt;=18000,INT((B8-18000)/1000),INT((B8+6000)/1000)),":",TEXT(MOD(B8,1000)/1000*60,"00")),"Nav")</f>
         <v>6:00</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="4"/>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="O5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="P5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="Q5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="R5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="S5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="T5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="U5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="V5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="W5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="X5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="Y5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="Z5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="AA5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="AB5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="AC5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="AD5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="AE5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="AF5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="AG5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="AH5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="AI5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:00</v>
+      </c>
+      <c r="AJ5" s="4"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <f>IF(ISNUMBER(A6)=true,A6+1,0)</f>
+        <f t="shared" ref="B6:AI6" si="2">IF(ISNUMBER(A6)=true,A6+1,0)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="8"/>
+      <c r="C6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AG6" s="7">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="AH6" s="7">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="AI6" s="7">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="AJ6" s="8"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -383,7 +944,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -400,7 +961,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
+      <c r="Z7" s="10"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
@@ -408,7 +969,9 @@
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
-      <c r="AH7" s="9"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="9"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" t="s">
@@ -421,31 +984,33 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="12"/>
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
+      <c r="AB8" s="13"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
-      <c r="AE8" s="13"/>
+      <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="13"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="13"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" t="s">
@@ -458,7 +1023,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -475,7 +1040,7 @@
       <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="15"/>
@@ -483,6 +1048,8 @@
       <c r="AE9" s="15"/>
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" t="s">
@@ -495,7 +1062,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -512,7 +1079,7 @@
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
+      <c r="Z10" s="14"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="15"/>
@@ -520,6 +1087,8 @@
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" t="s">
@@ -532,7 +1101,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -549,7 +1118,7 @@
       <c r="W11" s="15"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
+      <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="15"/>
@@ -557,6 +1126,8 @@
       <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" t="s">
@@ -569,7 +1140,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -586,7 +1157,7 @@
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
+      <c r="Z12" s="14"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="15"/>
@@ -594,6 +1165,8 @@
       <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s">
@@ -604,26 +1177,26 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
+      <c r="Z13" s="14"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
@@ -631,139 +1204,312 @@
       <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="18"/>
+    </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
+      <c r="A18" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" t="s">
-        <v>13</v>
+      <c r="A19" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" ref="B20:B26" si="1">TEXTJOIN(",",true,B8:ZW8)</f>
-        <v/>
-      </c>
-      <c r="I20" s="18"/>
+      <c r="A20" s="16" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A21" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A22" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="1"/>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" ref="B27:B41" si="3">TEXTJOIN(",",true,B8:ZY8)</f>
         <v/>
       </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="A36" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
     <row r="42" ht="12.75" customHeight="1"/>
     <row r="43" ht="12.75" customHeight="1"/>
     <row r="44" ht="12.75" customHeight="1"/>
@@ -948,13 +1694,13 @@
     <row r="223" ht="12.75" customHeight="1"/>
     <row r="224" ht="12.75" customHeight="1"/>
     <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
     <row r="233" ht="15.75" customHeight="1"/>
     <row r="234" ht="15.75" customHeight="1"/>
     <row r="235" ht="15.75" customHeight="1"/>
@@ -1726,6 +2472,13 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -1741,54 +2494,2220 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="8.0"/>
+    <col customWidth="1" min="1" max="1" width="11.29"/>
+    <col customWidth="1" min="2" max="36" width="14.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1"/>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1"/>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="str">
+        <f t="shared" ref="B5:AI5" si="1">IF(B8&gt;-1,CONCATENATE(IF(B8&gt;=18000,INT((B8-18000)/1000),INT((B8+6000)/1000)),":",TEXT(MOD(B8,1000)/1000*60,"00")),"Nav")</f>
+        <v>6:00</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>6:30</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>7:00</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>7:30</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>8:30</v>
+      </c>
+      <c r="O5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>12:00</v>
+      </c>
+      <c r="P5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="Q5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>12:30</v>
+      </c>
+      <c r="R5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="S5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>13:00</v>
+      </c>
+      <c r="T5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>16:00</v>
+      </c>
+      <c r="U5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="V5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="W5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="X5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="Y5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="Z5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="AA5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>17:00</v>
+      </c>
+      <c r="AB5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="AC5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>17:30</v>
+      </c>
+      <c r="AD5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>18:00</v>
+      </c>
+      <c r="AE5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="AF5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>18:30</v>
+      </c>
+      <c r="AG5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>19:30</v>
+      </c>
+      <c r="AH5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Nav</v>
+      </c>
+      <c r="AI5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>20:30</v>
+      </c>
+      <c r="AJ5" s="4"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" ref="B6:AI6" si="2">IF(ISNUMBER(A6)=true,A6+1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="AG6" s="7">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="AH6" s="7">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="AI6" s="7">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="AJ6" s="8"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ7" s="9"/>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>500.0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1000.0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1500.0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="N8" s="12">
+        <v>2500.0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>6000.0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>6500.0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>7000.0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>10000.0</v>
+      </c>
+      <c r="U8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="W8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="X8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>11000.0</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>-1.0</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>11500.0</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>12000.0</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>12500.0</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>13500.0</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>-1.0</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>14500.0</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14">
+        <v>37.0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>44.0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>44.0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>44.0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>44.0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>41.0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>33.0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>30.0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>39.0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>29.0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>29.0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>39.0</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>36.0</v>
+      </c>
+      <c r="R9" s="15">
+        <v>34.0</v>
+      </c>
+      <c r="S9" s="15">
+        <v>29.0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>29.0</v>
+      </c>
+      <c r="U9" s="15">
+        <v>34.0</v>
+      </c>
+      <c r="V9" s="15">
+        <v>31.0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>33.0</v>
+      </c>
+      <c r="X9" s="15">
+        <v>38.0</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>41.0</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>38.0</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>44.0</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>44.0</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>44.0</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>41.0</v>
+      </c>
+      <c r="AE9" s="15">
+        <v>41.0</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>32.0</v>
+      </c>
+      <c r="AH9" s="15">
+        <v>38.0</v>
+      </c>
+      <c r="AI9" s="15">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14">
+        <v>82.0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>81.0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>81.0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>80.0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>76.0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>70.0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="P10" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>72.0</v>
+      </c>
+      <c r="R10" s="15">
+        <v>72.0</v>
+      </c>
+      <c r="S10" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="T10" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="U10" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="V10" s="15">
+        <v>71.0</v>
+      </c>
+      <c r="W10" s="15">
+        <v>70.0</v>
+      </c>
+      <c r="X10" s="15">
+        <v>72.0</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>79.0</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>80.0</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>81.0</v>
+      </c>
+      <c r="AF10" s="15">
+        <v>82.0</v>
+      </c>
+      <c r="AG10" s="15">
+        <v>82.0</v>
+      </c>
+      <c r="AH10" s="15">
+        <v>80.0</v>
+      </c>
+      <c r="AI10" s="15">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14">
+        <v>142.0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>139.0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>140.0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>145.0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>143.0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>144.0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>143.0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>141.0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>157.0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>174.0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>187.0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>195.0</v>
+      </c>
+      <c r="N11" s="15">
+        <v>197.0</v>
+      </c>
+      <c r="O11" s="15">
+        <v>197.0</v>
+      </c>
+      <c r="P11" s="15">
+        <v>195.0</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>195.0</v>
+      </c>
+      <c r="R11" s="15">
+        <v>197.0</v>
+      </c>
+      <c r="S11" s="15">
+        <v>197.0</v>
+      </c>
+      <c r="T11" s="15">
+        <v>197.0</v>
+      </c>
+      <c r="U11" s="15">
+        <v>191.0</v>
+      </c>
+      <c r="V11" s="15">
+        <v>187.0</v>
+      </c>
+      <c r="W11" s="15">
+        <v>176.0</v>
+      </c>
+      <c r="X11" s="15">
+        <v>161.0</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>150.0</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>141.0</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>140.0</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>145.0</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>143.0</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>143.0</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>139.0</v>
+      </c>
+      <c r="AF11" s="15">
+        <v>146.0</v>
+      </c>
+      <c r="AG11" s="15">
+        <v>146.0</v>
+      </c>
+      <c r="AH11" s="15">
+        <v>140.0</v>
+      </c>
+      <c r="AI11" s="15">
+        <v>142.0</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14">
+        <v>360.0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>180.0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>270.0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>270.0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>270.0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>360.0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>90.0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>270.0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>90.0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>90.0</v>
+      </c>
+      <c r="P12" s="15">
+        <v>270.0</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>270.0</v>
+      </c>
+      <c r="R12" s="15">
+        <v>360.0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>90.0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>90.0</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>90.0</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>180.0</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>270.0</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>270.0</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>360.0</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>180.0</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>270.0</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>270.0</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>180.0</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>360.0</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="R13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="V13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="X13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>5.0</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="AF13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="AG13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="AH13" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="AI13" s="15">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="16">
+        <v>20.0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="R14" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="T14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="X14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>40.0</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AG14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AH14" s="16">
+        <v>100.0</v>
+      </c>
+      <c r="AI14" s="16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="N15" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="P15" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="R15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="T15" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="X15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AF15" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="AG15" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="AH15" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="AI15" s="16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="X16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AD16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH16" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AI16" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AJ16" s="17"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="N17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="O17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="S17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="T17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="U17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="V17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="X17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="Y17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AA17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AC17" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AF17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AG17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AH17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI17" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AJ17" s="18"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AD18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AF18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AG18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AH18" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AI18" s="16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AF19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AG19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AH19" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AI19" s="16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y20" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AD20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AF20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AG20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AH20" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AI20" s="16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AA21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AC21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AD21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AF21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AG21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AH21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="AI21" s="16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="X22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI22" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" ref="B27:B41" si="3">TEXTJOIN(",",true,B8:ZY8)</f>
+        <v>0,-1,500,-1,1000,-1,1500,-1,-1,-1,-1,-1,2500,6000,-1,6500,-1,7000,10000,-1,-1,-1,-1,-1,-1,11000,-1,11500,12000,-1,12500,13500,-1,14500</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="3"/>
+        <v>37,41,44,44,44,44,41,38,33,32,30,39,29,29,39,36,34,29,29,34,31,33,38,41,38,44,44,44,41,41,32,32,38,37</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="3"/>
+        <v>82,81,80,80,80,80,81,80,76,70,71,71,71,71,71,72,72,71,71,71,71,70,72,79,80,80,80,80,80,81,82,82,80,82</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="3"/>
+        <v>142,139,140,145,143,144,143,141,157,174,187,195,197,197,195,195,197,197,197,191,187,176,161,150,141,140,145,143,143,139,146,146,140,142</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="3"/>
+        <v>360,0,180,270,270,270,360,90,0,0,0,270,90,90,270,270,360,90,90,0,0,0,0,0,90,180,270,270,360,180,270,270,180,360</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="3"/>
+        <v>2,1,5,8,8,0,1,0,0,0,0,8,0,0,8,1,1,0,0,0,0,0,0,0,0,5,8,8,1,1,1,1,8,2</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="3"/>
+        <v>0,40,0,0,0,40,0,40,0,0,0,20,0,0,20,0,40,0,0,0,0,0,0,0,40,0,40,0,0,40,0,0,100,0</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="A34" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,6,4,4,3,5,3,0,0,0,2,2,2,2,5,0,2,2,0,0,0,0,0,3,6,5,4,5,0,5,5,3,0</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="A35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="3"/>
+        <v>0,["minecraft:paper",0],["minecraft:sponge",1],["harvestcraft:batteritem",0],0,["harvestcraft:skilletitem",0],["harvestcraft:pancakesitem",0],["backpacks16840:backpack",8],["backpacks16840:backpack",8],["backpacks16840:backpack",8],["backpacks16840:backpack",8],["harvestcraft:strawberryjellysandwichitem",0],["immersiveengineering:pickaxe_steel",0],["immersiveengineering:pickaxe_steel",0],["harvestcraft:strawberryjellysandwichitem",0],["harvestcraft:strawberryjellysandwichitem",0],["minecraft:paper",0],["immersiveengineering:pickaxe_steel",0],["immersiveengineering:pickaxe_steel",0],["backpacks16840:backpack",8],["backpacks16840:backpack",8],["backpacks16840:backpack",8],["backpacks16840:backpack",8],["backpacks16840:backpack",8],0,["minecraft:sponge",1],["minecraft:egg",0],0,["harvestcraft:scrambledeggitem",0],["minecraft:paper",0],["cfm:tv_remote",0],["cfm:tv_remote",0],0,0</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="A36" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,["cfm:item_soap",0],["harvestcraft:soymilkitem",0],["harvestcraft:skilletitem",0],["minecraft:sponge",1],0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,["cfm:item_soap",0],0,["harvestcraft:saucepanitem",0],0,0,0,0,["cfm:item_soap",0],0</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],["minecraft:leather_helmet",0],0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],["minecraft:leather_chestplate",0],0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],["minecraft:leather_leggings",0],0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],["minecraft:leather_boots",0],0,0,0,0,0,0,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="3"/>
+        <v>"humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/minersteve","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy","humanmale/black_shirt_guy"</v>
+      </c>
+    </row>
     <row r="42" ht="12.75" customHeight="1"/>
     <row r="43" ht="12.75" customHeight="1"/>
     <row r="44" ht="12.75" customHeight="1"/>
@@ -1968,18 +4887,18 @@
     <row r="218" ht="12.75" customHeight="1"/>
     <row r="219" ht="12.75" customHeight="1"/>
     <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
     <row r="233" ht="15.75" customHeight="1"/>
     <row r="234" ht="15.75" customHeight="1"/>
     <row r="235" ht="15.75" customHeight="1"/>
@@ -2748,11 +5667,22 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3775,4 +6705,1025 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="8.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.75" customHeight="1"/>
+    <row r="2" ht="12.75" customHeight="1"/>
+    <row r="3" ht="12.75" customHeight="1"/>
+    <row r="4" ht="12.75" customHeight="1"/>
+    <row r="5" ht="12.75" customHeight="1"/>
+    <row r="6" ht="12.75" customHeight="1"/>
+    <row r="7" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>